--- a/database/DataBase.xlsx
+++ b/database/DataBase.xlsx
@@ -1,340 +1,818 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenArt\git\portfolio\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9570"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_member" sheetId="1" r:id="rId1"/>
     <sheet name="tbl_board" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필드명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필드명 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>키 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nickName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>별명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK, auto_increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>추천수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recommend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(5000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK, auto_increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>default now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>default 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>default 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>인증글</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -346,40 +824,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F10" totalsRowShown="0">
   <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="번호" dataDxfId="2"/>
+    <tableColumn id="1" name="번호"/>
     <tableColumn id="2" name="필드명"/>
     <tableColumn id="3" name="필드명 이름"/>
     <tableColumn id="4" name="데이터 유형"/>
@@ -391,10 +900,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="번호" dataDxfId="0"/>
+    <tableColumn id="1" name="번호"/>
     <tableColumn id="2" name="필드명"/>
     <tableColumn id="3" name="필드명 이름"/>
     <tableColumn id="4" name="데이터 유형"/>
@@ -667,21 +1176,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" width="15.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="18.75499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="22.500000" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,199 +1212,199 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" width="15.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="18.75499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="22.500000" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -913,174 +1424,195 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/database/DataBase.xlsx
+++ b/database/DataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_member" sheetId="1" r:id="rId1"/>
@@ -167,14 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +284,14 @@
   </si>
   <si>
     <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -880,14 +880,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
@@ -918,19 +918,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -938,16 +938,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,16 +955,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,16 +972,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -989,16 +989,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1006,16 +1006,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,19 +1023,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,26 +1063,27 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>